--- a/projects/RadianceTest.xlsx
+++ b/projects/RadianceTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="60" windowWidth="23256" windowHeight="5640" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$G$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$15</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -6031,17 +6031,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -6059,23 +6059,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="24"/>
       <c r="C1" s="19"/>
@@ -6084,7 +6084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>441</v>
       </c>
@@ -6093,7 +6093,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>442</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>475</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
         <v>492</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="56">
       <c r="A6" s="1" t="s">
         <v>494</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>455</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>456</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>477</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>31</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>486</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>487</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>488</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>490</v>
       </c>
@@ -6271,10 +6271,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A20" s="11" t="s">
         <v>30</v>
       </c>
@@ -6285,7 +6282,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>470</v>
       </c>
@@ -6293,7 +6290,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A23" s="11" t="s">
         <v>466</v>
       </c>
@@ -6304,7 +6301,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -6312,7 +6309,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -6320,7 +6317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>567</v>
       </c>
@@ -6328,7 +6325,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>571</v>
       </c>
@@ -6336,7 +6333,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>568</v>
       </c>
@@ -6344,7 +6341,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>570</v>
       </c>
@@ -6352,77 +6349,80 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:5">
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B31" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B32" s="22" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B34" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:5" ht="28">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D35" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B37" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -6451,34 +6451,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="7.77734375" style="1" customWidth="1"/>
-    <col min="15" max="18" width="11.44140625" style="1"/>
-    <col min="19" max="19" width="46.109375" style="1" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="1"/>
+    <col min="13" max="14" width="7.83203125" style="1" customWidth="1"/>
+    <col min="15" max="18" width="11.5" style="1"/>
+    <col min="19" max="19" width="46.1640625" style="1" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="1"/>
     <col min="23" max="23" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="1"/>
+    <col min="24" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="7" t="s">
@@ -6513,7 +6513,7 @@
       <c r="X1" s="37"/>
       <c r="Y1" s="37"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -6526,7 +6526,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" customFormat="1">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" customFormat="1">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" customFormat="1">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" customFormat="1">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" customFormat="1">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" customFormat="1">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" customFormat="1">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" customFormat="1">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" customFormat="1">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" customFormat="1">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" customFormat="1">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" customFormat="1">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" customFormat="1">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" customFormat="1">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" customFormat="1">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" customFormat="1">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" customFormat="1">
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" customFormat="1">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" customFormat="1">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" customFormat="1">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" customFormat="1">
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" customFormat="1">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" customFormat="1">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" customFormat="1">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" customFormat="1">
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" customFormat="1">
       <c r="B29" t="s">
         <v>24</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" customFormat="1">
       <c r="B30" t="s">
         <v>24</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" customFormat="1">
       <c r="B31" t="s">
         <v>24</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" customFormat="1">
       <c r="A32" t="b">
         <v>1</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" customFormat="1">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="34" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" customFormat="1">
       <c r="B34" t="s">
         <v>24</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="35" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" customFormat="1">
       <c r="A35" t="b">
         <v>1</v>
       </c>
@@ -7225,13 +7225,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" customFormat="1"/>
+    <row r="37" spans="1:17" customFormat="1"/>
+    <row r="38" spans="1:17" customFormat="1"/>
+    <row r="39" spans="1:17" customFormat="1">
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -7271,18 +7271,18 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="33" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="1"/>
+    <col min="7" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="7" t="s">
@@ -7293,7 +7293,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>479</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="15">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
@@ -7325,7 +7325,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" customFormat="1">
       <c r="A4" t="s">
         <v>408</v>
       </c>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" customFormat="1">
       <c r="A5" t="s">
         <v>410</v>
       </c>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" customFormat="1">
       <c r="A6" t="s">
         <v>584</v>
       </c>
@@ -7364,7 +7364,7 @@
       </c>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" customFormat="1">
       <c r="A7" t="s">
         <v>586</v>
       </c>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -7388,7 +7388,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -7397,25 +7397,25 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" customFormat="1">
       <c r="E10" s="36"/>
     </row>
-    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" customFormat="1">
       <c r="E11" s="36"/>
     </row>
-    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" customFormat="1">
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" customFormat="1">
       <c r="E13" s="36"/>
     </row>
-    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" customFormat="1">
       <c r="E14" s="36"/>
     </row>
-    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" customFormat="1">
       <c r="E15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -7424,7 +7424,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -7433,7 +7433,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -7442,7 +7442,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -7451,7 +7451,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -7460,7 +7460,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -7469,7 +7469,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -7478,7 +7478,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -7487,7 +7487,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -7496,7 +7496,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -7520,23 +7520,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R366"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -7576,7 +7576,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>24</v>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>24</v>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>24</v>
@@ -7668,7 +7668,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>24</v>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>24</v>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>24</v>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>24</v>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>24</v>
@@ -7800,7 +7800,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>24</v>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>24</v>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>24</v>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>24</v>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>24</v>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>24</v>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>24</v>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>24</v>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>24</v>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>24</v>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>24</v>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>24</v>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>24</v>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>24</v>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>24</v>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>24</v>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>24</v>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -8229,7 +8229,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>24</v>
@@ -8250,7 +8250,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>24</v>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>24</v>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>24</v>
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>24</v>
@@ -8342,7 +8342,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>24</v>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>24</v>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>24</v>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>24</v>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -8453,7 +8453,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>24</v>
@@ -8474,7 +8474,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>24</v>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>24</v>
@@ -8520,7 +8520,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>24</v>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>24</v>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>24</v>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>24</v>
@@ -8612,7 +8612,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>24</v>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>24</v>
@@ -8658,7 +8658,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -8677,7 +8677,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>24</v>
@@ -8698,7 +8698,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>24</v>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>24</v>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>24</v>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>24</v>
@@ -8790,7 +8790,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>24</v>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>24</v>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>24</v>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>24</v>
@@ -8882,7 +8882,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -8901,7 +8901,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>24</v>
@@ -8922,7 +8922,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>24</v>
@@ -8947,7 +8947,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>24</v>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>24</v>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>24</v>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>24</v>
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>24</v>
@@ -9062,7 +9062,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>24</v>
@@ -9085,7 +9085,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>24</v>
@@ -9108,7 +9108,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>24</v>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -9150,7 +9150,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>24</v>
@@ -9171,7 +9171,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>24</v>
@@ -9194,7 +9194,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>24</v>
@@ -9219,7 +9219,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>24</v>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>24</v>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>24</v>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>24</v>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>24</v>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>24</v>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>24</v>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>24</v>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>24</v>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>24</v>
@@ -9449,7 +9449,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -9468,7 +9468,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>24</v>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>24</v>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>24</v>
@@ -9537,7 +9537,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>24</v>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>24</v>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>24</v>
@@ -9606,7 +9606,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>24</v>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>24</v>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>24</v>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>24</v>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -9717,7 +9717,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>24</v>
@@ -9742,7 +9742,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -9761,7 +9761,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>24</v>
@@ -9782,7 +9782,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>24</v>
@@ -9807,7 +9807,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -9826,7 +9826,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>24</v>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>24</v>
@@ -9874,7 +9874,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>24</v>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>24</v>
@@ -9918,7 +9918,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -9937,7 +9937,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>24</v>
@@ -9962,7 +9962,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>24</v>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>24</v>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>24</v>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>24</v>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>24</v>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>24</v>
@@ -10100,7 +10100,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -10119,7 +10119,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>24</v>
@@ -10142,7 +10142,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>24</v>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>24</v>
@@ -10188,7 +10188,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -10207,7 +10207,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>24</v>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>24</v>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>24</v>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>24</v>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>24</v>
@@ -10322,7 +10322,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>24</v>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -10364,7 +10364,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>24</v>
@@ -10389,7 +10389,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>24</v>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>24</v>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>24</v>
@@ -10458,7 +10458,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>24</v>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>24</v>
@@ -10504,7 +10504,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>24</v>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>24</v>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>24</v>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -10592,7 +10592,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>24</v>
@@ -10617,7 +10617,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>24</v>
@@ -10638,7 +10638,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>24</v>
@@ -10661,7 +10661,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>24</v>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>24</v>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>24</v>
@@ -10730,7 +10730,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>24</v>
@@ -10753,7 +10753,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>24</v>
@@ -10776,7 +10776,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>24</v>
@@ -10799,7 +10799,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>24</v>
@@ -10822,7 +10822,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>24</v>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>24</v>
@@ -10868,7 +10868,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>24</v>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>24</v>
@@ -10914,7 +10914,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -10933,7 +10933,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>24</v>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -10975,7 +10975,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>24</v>
@@ -10998,7 +10998,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>24</v>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -11040,7 +11040,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>24</v>
@@ -11065,7 +11065,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>24</v>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>24</v>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>24</v>
@@ -11134,7 +11134,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>24</v>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>24</v>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>24</v>
@@ -11203,7 +11203,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>24</v>
@@ -11226,7 +11226,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>24</v>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>24</v>
@@ -11272,7 +11272,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -11291,7 +11291,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>24</v>
@@ -11316,7 +11316,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>24</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>24</v>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>24</v>
@@ -11385,7 +11385,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>24</v>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>24</v>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>24</v>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>24</v>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>24</v>
@@ -11500,7 +11500,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>24</v>
@@ -11523,7 +11523,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -11542,7 +11542,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>24</v>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>24</v>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>24</v>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>24</v>
@@ -11634,7 +11634,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -11653,7 +11653,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>24</v>
@@ -11676,7 +11676,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>24</v>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>24</v>
@@ -11722,7 +11722,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>24</v>
@@ -11745,7 +11745,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -11764,7 +11764,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>24</v>
@@ -11785,7 +11785,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>24</v>
@@ -11808,7 +11808,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -11827,7 +11827,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>24</v>
@@ -11850,7 +11850,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>24</v>
@@ -11875,7 +11875,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>24</v>
@@ -11896,7 +11896,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>24</v>
@@ -11921,7 +11921,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>24</v>
@@ -11946,7 +11946,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -11965,7 +11965,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>24</v>
@@ -11990,7 +11990,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>24</v>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>24</v>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>24</v>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>24</v>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>24</v>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>24</v>
@@ -12128,7 +12128,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>24</v>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>24</v>
@@ -12174,7 +12174,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -12193,7 +12193,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>24</v>
@@ -12218,7 +12218,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>24</v>
@@ -12241,7 +12241,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>24</v>
@@ -12264,7 +12264,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>24</v>
@@ -12287,7 +12287,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>24</v>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>24</v>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>24</v>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>24</v>
@@ -12379,7 +12379,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>24</v>
@@ -12402,7 +12402,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -12421,7 +12421,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>24</v>
@@ -12442,7 +12442,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>24</v>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>24</v>
@@ -12488,7 +12488,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>24</v>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>24</v>
@@ -12534,7 +12534,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>24</v>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>24</v>
@@ -12580,7 +12580,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>24</v>
@@ -12603,7 +12603,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>24</v>
@@ -12626,7 +12626,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>24</v>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>24</v>
@@ -12672,7 +12672,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>24</v>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>24</v>
@@ -12718,7 +12718,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>24</v>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>24</v>
@@ -12764,7 +12764,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>24</v>
@@ -12787,7 +12787,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -12806,7 +12806,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>24</v>
@@ -12827,7 +12827,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>24</v>
@@ -12850,7 +12850,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>24</v>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>24</v>
@@ -12896,7 +12896,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>24</v>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>24</v>
@@ -12942,7 +12942,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>24</v>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>24</v>
@@ -12988,7 +12988,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>24</v>
@@ -13011,7 +13011,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>24</v>
@@ -13034,7 +13034,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>24</v>
@@ -13057,7 +13057,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>24</v>
@@ -13080,7 +13080,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>24</v>
@@ -13103,7 +13103,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>24</v>
@@ -13126,7 +13126,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>24</v>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>24</v>
@@ -13172,7 +13172,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -13191,7 +13191,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>24</v>
@@ -13216,7 +13216,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>24</v>
@@ -13239,7 +13239,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>24</v>
@@ -13262,7 +13262,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>24</v>
@@ -13285,7 +13285,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>24</v>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -13327,7 +13327,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>24</v>
@@ -13352,7 +13352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>24</v>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -13394,7 +13394,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -13413,7 +13413,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>24</v>
@@ -13453,7 +13453,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>24</v>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>24</v>
@@ -13499,7 +13499,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>24</v>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>24</v>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>24</v>
@@ -13568,7 +13568,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>24</v>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>24</v>
@@ -13614,7 +13614,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>24</v>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>24</v>
@@ -13660,7 +13660,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>24</v>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -13702,7 +13702,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>24</v>
@@ -13725,7 +13725,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -13744,7 +13744,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>24</v>
@@ -13769,7 +13769,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>24</v>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>24</v>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>24</v>
@@ -13838,7 +13838,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>24</v>
@@ -13861,7 +13861,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>24</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>24</v>
@@ -13907,7 +13907,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>24</v>
@@ -13930,7 +13930,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>24</v>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>24</v>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>24</v>
@@ -13999,7 +13999,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -14018,7 +14018,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>24</v>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -14060,7 +14060,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>24</v>
@@ -14081,7 +14081,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -14100,7 +14100,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>24</v>
@@ -14121,7 +14121,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -14140,7 +14140,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>24</v>
@@ -14161,7 +14161,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -14180,7 +14180,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>24</v>
@@ -14203,7 +14203,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -14222,7 +14222,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>24</v>
@@ -14247,7 +14247,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>24</v>
@@ -14270,7 +14270,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>24</v>
@@ -14293,7 +14293,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>24</v>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>24</v>
@@ -14339,7 +14339,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>24</v>
@@ -14362,7 +14362,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>24</v>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>24</v>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>24</v>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -14450,7 +14450,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>24</v>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>24</v>
@@ -14496,7 +14496,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>24</v>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>24</v>
@@ -14542,7 +14542,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -14561,7 +14561,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>24</v>
@@ -14584,7 +14584,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>24</v>
@@ -14607,7 +14607,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>24</v>
@@ -14632,7 +14632,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -14651,7 +14651,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>24</v>
@@ -14676,7 +14676,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>24</v>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -14718,7 +14718,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>24</v>
@@ -14739,7 +14739,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>24</v>
@@ -14760,7 +14760,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>24</v>
@@ -14783,7 +14783,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -14802,7 +14802,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -14821,7 +14821,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>24</v>
@@ -14846,7 +14846,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>24</v>
@@ -14871,7 +14871,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>24</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>24</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>24</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>24</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>24</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>24</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>24</v>
       </c>
@@ -15031,7 +15031,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>24</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>24</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>24</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>24</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>24</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -15174,7 +15174,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>24</v>
@@ -15203,7 +15203,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>24</v>
@@ -15242,7 +15242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>24</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>24</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>24</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>24</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>24</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>24</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>24</v>
       </c>
@@ -15410,7 +15410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>24</v>
       </c>
@@ -15430,7 +15430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>24</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>24</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>24</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>24</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -15540,7 +15540,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>24</v>
       </c>
@@ -15566,7 +15566,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>25</v>
@@ -15607,7 +15607,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -15621,7 +15621,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>24</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -15655,7 +15655,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>24</v>
       </c>
@@ -15694,13 +15694,13 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>454</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>444</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>445</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>452</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>446</v>
       </c>
@@ -15755,17 +15755,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>471</v>
       </c>
@@ -15792,9 +15792,9 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>405</v>
       </c>
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>405</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>582</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>582</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>582</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>582</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>582</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>582</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>582</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>582</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>582</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>582</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>582</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>582</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>582</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>582</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>582</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>582</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>582</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>582</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>582</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>582</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>582</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>582</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>582</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>582</v>
       </c>
@@ -16230,7 +16230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>582</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>582</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>582</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>582</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>582</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>582</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>582</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>582</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>582</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>582</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>582</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>582</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>582</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>582</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>582</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>582</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>582</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>582</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>582</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>582</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>582</v>
       </c>
@@ -16587,7 +16587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>582</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>582</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>582</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>582</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>582</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>582</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>582</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>582</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>582</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>582</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>582</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>582</v>
       </c>
@@ -16791,7 +16791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>582</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>582</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>582</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>582</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>582</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>582</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>582</v>
       </c>
@@ -16910,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>582</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>582</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>582</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>582</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>582</v>
       </c>
@@ -16995,7 +16995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>582</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>582</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>582</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>582</v>
       </c>
@@ -17063,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>582</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>582</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>582</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>582</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>582</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>582</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>582</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>582</v>
       </c>
@@ -17199,7 +17199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>582</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>582</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>582</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>582</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>582</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>582</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>582</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>582</v>
       </c>
@@ -17335,7 +17335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>582</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>582</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>582</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>582</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>582</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>582</v>
       </c>
@@ -17437,7 +17437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>582</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>582</v>
       </c>
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>582</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>582</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>582</v>
       </c>
@@ -17522,7 +17522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>582</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>582</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>582</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>582</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>582</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>582</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>582</v>
       </c>
@@ -17641,7 +17641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>582</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>582</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>582</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>582</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>582</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>582</v>
       </c>
@@ -17743,7 +17743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>582</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>582</v>
       </c>
@@ -17777,7 +17777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>582</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>582</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>582</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>582</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>582</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>582</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>582</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>582</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>582</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>582</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>582</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>582</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>582</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>582</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>582</v>
       </c>
@@ -18032,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>582</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>582</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>582</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>582</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>582</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>582</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>582</v>
       </c>
@@ -18151,7 +18151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>582</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>582</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>582</v>
       </c>
@@ -18202,7 +18202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>582</v>
       </c>
@@ -18219,7 +18219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>582</v>
       </c>
@@ -18236,7 +18236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>582</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>582</v>
       </c>
@@ -18270,7 +18270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>582</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>582</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>582</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>582</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>582</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>582</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>582</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>582</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>582</v>
       </c>
@@ -18423,7 +18423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>582</v>
       </c>
@@ -18440,7 +18440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>582</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>582</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>582</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>582</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>582</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>582</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>582</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>582</v>
       </c>
@@ -18576,7 +18576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>582</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>582</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>582</v>
       </c>
@@ -18627,7 +18627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>582</v>
       </c>
@@ -18644,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>582</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>582</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>582</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>582</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>582</v>
       </c>
@@ -18729,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>582</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>582</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>582</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>582</v>
       </c>
@@ -18797,7 +18797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>582</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>582</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>582</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>582</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>582</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>582</v>
       </c>
@@ -18899,7 +18899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>582</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>582</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>582</v>
       </c>
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>582</v>
       </c>
@@ -18967,7 +18967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>582</v>
       </c>
@@ -18984,7 +18984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>582</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>582</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>582</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>582</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>582</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>582</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>582</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>582</v>
       </c>
@@ -19120,7 +19120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>582</v>
       </c>
@@ -19137,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>582</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>582</v>
       </c>
@@ -19171,7 +19171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>582</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>582</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>582</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>582</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>582</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>582</v>
       </c>
@@ -19273,7 +19273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>582</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>582</v>
       </c>
@@ -19307,7 +19307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>582</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>582</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>582</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>582</v>
       </c>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>582</v>
       </c>
@@ -19392,7 +19392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>582</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>582</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>582</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>582</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>582</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>582</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>582</v>
       </c>
@@ -19511,7 +19511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>582</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>582</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>582</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>582</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>582</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>582</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>582</v>
       </c>
@@ -19630,7 +19630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>582</v>
       </c>
@@ -19647,7 +19647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>582</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>582</v>
       </c>
@@ -19681,7 +19681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>582</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>582</v>
       </c>
@@ -19715,7 +19715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>582</v>
       </c>
@@ -19732,7 +19732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>582</v>
       </c>
@@ -19749,7 +19749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>582</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>582</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>582</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>582</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>582</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>582</v>
       </c>
@@ -19851,7 +19851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>582</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>582</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>582</v>
       </c>
@@ -19902,7 +19902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>582</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>582</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>582</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>582</v>
       </c>
@@ -19970,7 +19970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>582</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>582</v>
       </c>
@@ -20004,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>582</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>582</v>
       </c>
@@ -20038,7 +20038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>582</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>582</v>
       </c>
@@ -20072,7 +20072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>582</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>582</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>582</v>
       </c>
@@ -20123,7 +20123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>582</v>
       </c>
@@ -20140,7 +20140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>582</v>
       </c>
@@ -20157,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>582</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>582</v>
       </c>
@@ -20191,7 +20191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>582</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>582</v>
       </c>
@@ -20225,7 +20225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>582</v>
       </c>
@@ -20242,7 +20242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>582</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>582</v>
       </c>
@@ -20276,7 +20276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>582</v>
       </c>
@@ -20293,7 +20293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>582</v>
       </c>
@@ -20310,7 +20310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>582</v>
       </c>
@@ -20327,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>582</v>
       </c>
@@ -20344,7 +20344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>582</v>
       </c>
@@ -20361,7 +20361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>582</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>582</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>582</v>
       </c>
@@ -20412,7 +20412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>582</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>582</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>582</v>
       </c>
@@ -20463,7 +20463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>582</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>582</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>582</v>
       </c>
@@ -20514,7 +20514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>582</v>
       </c>
@@ -20531,7 +20531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>582</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>582</v>
       </c>
@@ -20565,7 +20565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>582</v>
       </c>
@@ -20582,7 +20582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>582</v>
       </c>
@@ -20599,7 +20599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>582</v>
       </c>
@@ -20616,7 +20616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>582</v>
       </c>
@@ -20633,7 +20633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>582</v>
       </c>
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>582</v>
       </c>
@@ -20667,7 +20667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>582</v>
       </c>
@@ -20684,7 +20684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>582</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>582</v>
       </c>
@@ -20718,7 +20718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>582</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>582</v>
       </c>
@@ -20752,7 +20752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>582</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>582</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>582</v>
       </c>
@@ -20820,7 +20820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>582</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>582</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>582</v>
       </c>
@@ -20871,7 +20871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>582</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>582</v>
       </c>
@@ -20905,7 +20905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>582</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>582</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>582</v>
       </c>
@@ -20958,5 +20958,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>